--- a/Rendu_1/MemoryMap.xlsx
+++ b/Rendu_1/MemoryMap.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/Rendu_1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="200" documentId="11_AD4DB114E441178AC67DF403BE13D00A693EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF186529-176A-493C-A243-8E21D0F8CDE0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +24,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Plan mémoire</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>Mémoire</t>
+  </si>
+  <si>
+    <t>$00 - $09</t>
+  </si>
+  <si>
+    <t>$10</t>
+  </si>
+  <si>
+    <t>$11</t>
+  </si>
+  <si>
+    <t>CS_PORT_A</t>
+  </si>
+  <si>
+    <t>CS_PORT_B</t>
+  </si>
+  <si>
+    <t>$FF</t>
+  </si>
+  <si>
+    <t>$E0</t>
+  </si>
+  <si>
+    <t>$12 - $DF</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;CHF&quot;_-;\-* #,##0.00\ &quot;CHF&quot;_-;_-* &quot;-&quot;??\ &quot;CHF&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +78,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,14 +132,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +481,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="30" x14ac:dyDescent="0.5">
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>